--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>84.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.36</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.44</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>009983</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>永赢港股通品质生活慧选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006039</t>
+          <t>001691</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
+          <t>南方香港成长灵活配置混合QDII</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.11</t>
+          <t>35.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0239</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -734,25 +824,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>009108</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>富国红利精选混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001691</t>
+          <t>009193</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方香港成长灵活配置混合QDII</t>
+          <t>富国红利精选混合（QDII）美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.88</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009108</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）人民币</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>富兰克林国海估值优势灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -846,25 +976,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009193</t>
+          <t>008481</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国红利精选混合（QDII）美元</t>
+          <t>永赢股息优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3946</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9905</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9905</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7936</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7429</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,4 +2057,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4616</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2868</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2873,4 +2874,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.68</v>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.93</v>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8659</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.72</v>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2961,13 +3048,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.82</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3281,7 +3282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3292,17 +3293,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3312,14 +3333,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.82</v>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3328,14 +3371,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.68</v>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3344,14 +3409,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.93</v>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3360,14 +3447,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.72</v>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3376,13 +3485,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.82</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3528,7 +3529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,17 +3540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3559,14 +3580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -3575,14 +3618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.82</v>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3591,14 +3656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.68</v>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3607,14 +3694,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.93</v>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3623,14 +3732,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.72</v>
       </c>
     </row>
     <row r="7">
@@ -3639,13 +3770,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.82</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.89</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.82</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>8.68</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>11.93</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>3.72</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.82</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>84.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5065</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011315</t>
+          <t>013897</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2041</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>013898</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>84.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -884,6 +901,290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2343,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3709,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01458-周黑鸭.xlsx
+++ b/数据整理/stocks/港股/01458-周黑鸭.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.89</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.82</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>8.68</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>11.93</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>3.72</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,280 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,32 +936,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>009010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>华夏兴阳一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>27.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.96</t>
+          <t>90.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0169</t>
+          <t>0.6306</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,36 +974,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013897</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦港股通成长精选混合型证券投资基金A</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.99</t>
+          <t>90.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.4521</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1012,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013898</t>
+          <t>005888</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>德邦港股通成长精选混合型证券投资基金C</t>
+          <t>华夏新兴消费混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.99</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.2381</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1050,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>202801</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>南方全球精选配置（QDII-FOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>17.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.96</t>
+          <t>32.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.2008</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1088,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>005889</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>华夏新兴消费混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.1475</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1126,378 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>105.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>005142</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -957,36 +1562,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009983</t>
+          <t>010783</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢港股通品质生活慧选混合</t>
+          <t>德邦沪港深龙头混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>84.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5065</t>
+          <t>0.0169</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -995,36 +1600,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011315</t>
+          <t>013897</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2041</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1033,36 +1638,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>013898</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1247</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1071,36 +1676,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010783</t>
+          <t>010784</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合A</t>
+          <t>德邦沪港深龙头混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>84.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1109,36 +1714,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010784</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦沪港深龙头混合C</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.00</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1147,36 +1752,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008481</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>永赢股息优选混合C</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1185,6 +1790,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1430,7 +2319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1828,7 +2717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2644,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3650,7 +4539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4008,250 +4897,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009983</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>永赢港股通品质生活慧选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6936</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4861</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001691</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方香港成长灵活配置混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4036</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2082</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>